--- a/experiment result/128_0.7_40_zs0_kappa_lp.xlsx
+++ b/experiment result/128_0.7_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02079503073000526</v>
+        <v>0.005656921165653002</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03517671843603407</v>
+        <v>0.007584624190925959</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05693766273232991</v>
+        <v>0.01520459250210148</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0546563297204814</v>
+        <v>0.01962216513736269</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04790301046877784</v>
+        <v>0.006812190959551091</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04660047790193591</v>
+        <v>0.01724602209393897</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03925358925799502</v>
+        <v>0.00709403893590319</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02919301228994376</v>
+        <v>0.007707051358958414</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03263541044308577</v>
+        <v>0.008788109013419792</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05072100391541946</v>
+        <v>0.0182516133603005</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04501180246992917</v>
+        <v>0.008937889945292384</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05432270643691983</v>
+        <v>0.0129200577660235</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02001316555237246</v>
+        <v>0.00629627705625792</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03771674013416947</v>
+        <v>0.009753994683905009</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04532396766909803</v>
+        <v>0.01173948628921448</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0418171110245539</v>
+        <v>0.005497729660797351</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03439739430757736</v>
+        <v>0.008582162239831033</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01487490492479308</v>
+        <v>0.002977091886372082</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04140649497179071</v>
+        <v>0.01513258667970939</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04119181211791793</v>
+        <v>0.01282016601784565</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02649303140431723</v>
+        <v>0.005535330449519426</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02242621867823634</v>
+        <v>0.003479040726550497</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04608861683329282</v>
+        <v>0.0156607386769879</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02425080863216592</v>
+        <v>0.003934652070194141</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01480851243362976</v>
+        <v>0.001540812508843906</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06466915228041106</v>
+        <v>0.01331306920252593</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03354065705006017</v>
+        <v>0.002910281148317251</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04804252754038733</v>
+        <v>0.01301505171639724</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02781301879072905</v>
+        <v>0.005492561839015772</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05367491774434398</v>
+        <v>0.0121459099344028</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01857713681010392</v>
+        <v>0.002781955899637819</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03099453471942282</v>
+        <v>0.009131220730309244</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06964864785977523</v>
+        <v>0.01159450963935755</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02242592756200696</v>
+        <v>0.007777107680993716</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04650561777108016</v>
+        <v>0.01796831139870541</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03901617306544981</v>
+        <v>0.01452340161213688</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01729259103438247</v>
+        <v>0.003050196137662913</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02430102471994947</v>
+        <v>0.007408020889274324</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03080677259533026</v>
+        <v>0.01107299315143785</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04951453726064214</v>
+        <v>0.0172949966556639</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.05030085338331557</v>
+        <v>0.01833525924018548</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02863385455056461</v>
+        <v>0.002938279099188252</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04128829883013184</v>
+        <v>0.01894700374295435</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03721074227737512</v>
+        <v>0.008771341365059929</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05497625121332524</v>
+        <v>0.0163424042730311</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05265644097483325</v>
+        <v>0.01000650900730359</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.04427422670221776</v>
+        <v>0.01616799814899436</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01363229251687126</v>
+        <v>0.003624620968886653</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.05311462656722556</v>
+        <v>0.007936698407909986</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01736074745850273</v>
+        <v>0.008958108602019638</v>
       </c>
     </row>
   </sheetData>
